--- a/src/main/resources/TestData/PatientInfo.xlsx
+++ b/src/main/resources/TestData/PatientInfo.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yours\git\DieticianAPI\src\main\resources\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7AF8855-8E14-4740-B055-CFB9ACB493D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95857DCE-C546-478B-9FA2-42E9E3DCDED0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12225" yWindow="225" windowWidth="15600" windowHeight="15255" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView minimized="1" xWindow="390" yWindow="390" windowWidth="15600" windowHeight="15255" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="41">
   <si>
     <t>FirstName</t>
   </si>
@@ -128,6 +128,21 @@
   </si>
   <si>
     <t>Jain</t>
+  </si>
+  <si>
+    <t>1967-11-4</t>
+  </si>
+  <si>
+    <t>1980-1-1</t>
+  </si>
+  <si>
+    <t>1994-2-12</t>
+  </si>
+  <si>
+    <t>1996-6-12</t>
+  </si>
+  <si>
+    <t>1965-12-31</t>
   </si>
 </sst>
 </file>
@@ -193,9 +208,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -514,7 +529,7 @@
   <dimension ref="A1:H32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -525,7 +540,7 @@
     <col min="7" max="7" width="10.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -547,340 +562,341 @@
       <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
+      <c r="H1" s="3"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D2" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="F2" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="G2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="H2" s="2"/>
+      <c r="H2" s="3"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="2">
+      <c r="C3" s="3">
         <v>1201201201</v>
       </c>
       <c r="D3" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="E3" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="F3" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="G3" s="2">
-        <v>30357</v>
-      </c>
-      <c r="H3" s="2"/>
+      <c r="G3" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="H3" s="3"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="C4" s="2">
+      <c r="C4" s="3">
         <v>2323234343</v>
       </c>
       <c r="D4" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="E4" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="F4" s="2" t="s">
+      <c r="F4" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="G4" s="2">
-        <v>32933</v>
-      </c>
-      <c r="H4" s="2"/>
+      <c r="G4" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="H4" s="3"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
+      <c r="A5" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="C5" s="2">
+      <c r="C5" s="3">
         <v>4545455454</v>
       </c>
       <c r="D5" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="E5" s="2" t="s">
+      <c r="E5" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="F5" s="2" t="s">
+      <c r="F5" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="G5" s="2">
-        <v>33462</v>
-      </c>
-      <c r="H5" s="2"/>
+      <c r="G5" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="H5" s="3"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
+      <c r="A6" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="C6" s="2">
+      <c r="C6" s="3">
         <v>9876897689</v>
       </c>
       <c r="D6" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="E6" s="2" t="s">
+      <c r="E6" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="F6" s="2" t="s">
+      <c r="F6" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="G6" s="2">
-        <v>36835</v>
-      </c>
-      <c r="H6" s="2"/>
+      <c r="G6" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="H6" s="3"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
+      <c r="A7" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B7" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="C7" s="2">
+      <c r="C7" s="3">
         <v>6789987678</v>
       </c>
       <c r="D7" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="E7" s="2" t="s">
+      <c r="E7" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="F7" s="2" t="s">
+      <c r="F7" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="G7" s="2">
-        <v>37147</v>
-      </c>
-      <c r="H7" s="2"/>
+      <c r="G7" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="H7" s="3"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="2"/>
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
-      <c r="G8" s="2"/>
-      <c r="H8" s="2"/>
+      <c r="A8" s="3"/>
+      <c r="B8" s="3"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
+      <c r="H8" s="3"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="2"/>
-      <c r="B9" s="2"/>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
-      <c r="F9" s="2"/>
-      <c r="G9" s="2"/>
-      <c r="H9" s="2"/>
+      <c r="A9" s="3"/>
+      <c r="B9" s="3"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3"/>
+      <c r="H9" s="3"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="2"/>
-      <c r="B10" s="2"/>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
-      <c r="G10" s="2"/>
-      <c r="H10" s="2"/>
+      <c r="A10" s="3"/>
+      <c r="B10" s="3"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3"/>
+      <c r="G10" s="3"/>
+      <c r="H10" s="3"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="2"/>
-      <c r="B11" s="2"/>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
-      <c r="F11" s="2"/>
-      <c r="G11" s="2"/>
-      <c r="H11" s="2"/>
+      <c r="A11" s="3"/>
+      <c r="B11" s="3"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3"/>
+      <c r="H11" s="3"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="2"/>
-      <c r="B12" s="2"/>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
-      <c r="G12" s="2"/>
-      <c r="H12" s="2"/>
+      <c r="A12" s="3"/>
+      <c r="B12" s="3"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
+      <c r="H12" s="3"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="2"/>
-      <c r="B13" s="2"/>
-      <c r="C13" s="2"/>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
-      <c r="F13" s="2"/>
-      <c r="G13" s="2"/>
-      <c r="H13" s="2"/>
+      <c r="A13" s="3"/>
+      <c r="B13" s="3"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3"/>
+      <c r="H13" s="3"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="2"/>
-      <c r="B14" s="2"/>
-      <c r="C14" s="2"/>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
-      <c r="F14" s="2"/>
-      <c r="G14" s="2"/>
-      <c r="H14" s="2"/>
+      <c r="A14" s="3"/>
+      <c r="B14" s="3"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3"/>
+      <c r="H14" s="3"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="2"/>
-      <c r="B15" s="2"/>
-      <c r="C15" s="2"/>
-      <c r="D15" s="2"/>
-      <c r="E15" s="2"/>
-      <c r="F15" s="2"/>
-      <c r="G15" s="2"/>
-      <c r="H15" s="2"/>
+      <c r="A15" s="3"/>
+      <c r="B15" s="3"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
+      <c r="G15" s="3"/>
+      <c r="H15" s="3"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="2"/>
-      <c r="B16" s="2"/>
-      <c r="C16" s="2"/>
-      <c r="D16" s="2"/>
-      <c r="E16" s="2"/>
-      <c r="F16" s="2"/>
-      <c r="G16" s="2"/>
-      <c r="H16" s="2"/>
+      <c r="A16" s="3"/>
+      <c r="B16" s="3"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3"/>
+      <c r="G16" s="3"/>
+      <c r="H16" s="3"/>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="2"/>
-      <c r="B17" s="2"/>
-      <c r="C17" s="2"/>
-      <c r="D17" s="2"/>
-      <c r="E17" s="2"/>
-      <c r="F17" s="2"/>
-      <c r="G17" s="2"/>
-      <c r="H17" s="2"/>
+      <c r="A17" s="3"/>
+      <c r="B17" s="3"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="3"/>
+      <c r="G17" s="3"/>
+      <c r="H17" s="3"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="2"/>
-      <c r="B18" s="2"/>
-      <c r="C18" s="2"/>
-      <c r="D18" s="2"/>
-      <c r="E18" s="2"/>
-      <c r="F18" s="2"/>
-      <c r="G18" s="2"/>
-      <c r="H18" s="2"/>
+      <c r="A18" s="3"/>
+      <c r="B18" s="3"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="3"/>
+      <c r="G18" s="3"/>
+      <c r="H18" s="3"/>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" s="2"/>
-      <c r="B19" s="2"/>
-      <c r="C19" s="2"/>
-      <c r="D19" s="2"/>
-      <c r="E19" s="2"/>
-      <c r="F19" s="2"/>
-      <c r="G19" s="2"/>
-      <c r="H19" s="2"/>
+      <c r="A19" s="3"/>
+      <c r="B19" s="3"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="3"/>
+      <c r="F19" s="3"/>
+      <c r="G19" s="3"/>
+      <c r="H19" s="3"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" s="2"/>
-      <c r="B20" s="2"/>
-      <c r="C20" s="2"/>
-      <c r="D20" s="2"/>
-      <c r="E20" s="2"/>
-      <c r="F20" s="2"/>
-      <c r="G20" s="2"/>
-      <c r="H20" s="2"/>
+      <c r="A20" s="3"/>
+      <c r="B20" s="3"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="3"/>
+      <c r="E20" s="3"/>
+      <c r="F20" s="3"/>
+      <c r="G20" s="3"/>
+      <c r="H20" s="3"/>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" s="2"/>
-      <c r="B21" s="2"/>
-      <c r="C21" s="2"/>
-      <c r="D21" s="2"/>
-      <c r="E21" s="2"/>
-      <c r="F21" s="2"/>
-      <c r="G21" s="2"/>
-      <c r="H21" s="2"/>
+      <c r="A21" s="3"/>
+      <c r="B21" s="3"/>
+      <c r="C21" s="3"/>
+      <c r="D21" s="3"/>
+      <c r="E21" s="3"/>
+      <c r="F21" s="3"/>
+      <c r="G21" s="3"/>
+      <c r="H21" s="3"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" s="2"/>
-      <c r="B22" s="2"/>
-      <c r="C22" s="2"/>
-      <c r="D22" s="2"/>
-      <c r="E22" s="2"/>
-      <c r="F22" s="2"/>
-      <c r="G22" s="2"/>
-      <c r="H22" s="2"/>
+      <c r="A22" s="3"/>
+      <c r="B22" s="3"/>
+      <c r="C22" s="3"/>
+      <c r="D22" s="3"/>
+      <c r="E22" s="3"/>
+      <c r="F22" s="3"/>
+      <c r="G22" s="3"/>
+      <c r="H22" s="3"/>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A23" s="2"/>
-      <c r="B23" s="2"/>
-      <c r="C23" s="2"/>
-      <c r="D23" s="2"/>
-      <c r="E23" s="2"/>
-      <c r="F23" s="2"/>
-      <c r="G23" s="2"/>
-      <c r="H23" s="2"/>
+      <c r="A23" s="3"/>
+      <c r="B23" s="3"/>
+      <c r="C23" s="3"/>
+      <c r="D23" s="3"/>
+      <c r="E23" s="3"/>
+      <c r="F23" s="3"/>
+      <c r="G23" s="3"/>
+      <c r="H23" s="3"/>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A24" s="2"/>
-      <c r="B24" s="2"/>
-      <c r="C24" s="2"/>
-      <c r="D24" s="2"/>
-      <c r="E24" s="2"/>
-      <c r="F24" s="2"/>
-      <c r="G24" s="2"/>
-      <c r="H24" s="2"/>
+      <c r="A24" s="3"/>
+      <c r="B24" s="3"/>
+      <c r="C24" s="3"/>
+      <c r="D24" s="3"/>
+      <c r="E24" s="3"/>
+      <c r="F24" s="3"/>
+      <c r="G24" s="3"/>
+      <c r="H24" s="3"/>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A25" s="2"/>
-      <c r="B25" s="2"/>
-      <c r="C25" s="2"/>
-      <c r="D25" s="2"/>
-      <c r="E25" s="2"/>
-      <c r="F25" s="2"/>
-      <c r="G25" s="2"/>
-      <c r="H25" s="2"/>
+      <c r="A25" s="3"/>
+      <c r="B25" s="3"/>
+      <c r="C25" s="3"/>
+      <c r="D25" s="3"/>
+      <c r="E25" s="3"/>
+      <c r="F25" s="3"/>
+      <c r="G25" s="3"/>
+      <c r="H25" s="3"/>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A26" s="2"/>
-      <c r="B26" s="2"/>
-      <c r="C26" s="2"/>
-      <c r="D26" s="2"/>
-      <c r="E26" s="2"/>
-      <c r="F26" s="2"/>
-      <c r="G26" s="2"/>
-      <c r="H26" s="2"/>
+      <c r="A26" s="3"/>
+      <c r="B26" s="3"/>
+      <c r="C26" s="3"/>
+      <c r="D26" s="3"/>
+      <c r="E26" s="3"/>
+      <c r="F26" s="3"/>
+      <c r="G26" s="3"/>
+      <c r="H26" s="3"/>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" s="2"/>
